--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Bmp8a-Tgfbr2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Bmp8a-Tgfbr2.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.9146825</v>
+        <v>0.557709</v>
       </c>
       <c r="H2">
-        <v>1.829365</v>
+        <v>1.115418</v>
       </c>
       <c r="I2">
-        <v>0.3844151897968112</v>
+        <v>0.4170172494453693</v>
       </c>
       <c r="J2">
-        <v>0.312897564880365</v>
+        <v>0.3331592991879933</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>44.544241</v>
+        <v>23.0716105</v>
       </c>
       <c r="N2">
-        <v>89.088482</v>
+        <v>46.143221</v>
       </c>
       <c r="O2">
-        <v>0.2677188803968526</v>
+        <v>0.1676314597340788</v>
       </c>
       <c r="P2">
-        <v>0.2025351964154738</v>
+        <v>0.1219100312399993</v>
       </c>
       <c r="Q2">
-        <v>40.7438377184825</v>
+        <v>12.8672448203445</v>
       </c>
       <c r="R2">
-        <v>162.97535087393</v>
+        <v>51.468979281378</v>
       </c>
       <c r="S2">
-        <v>0.1029152042199459</v>
+        <v>0.06990521025881773</v>
       </c>
       <c r="T2">
-        <v>0.06337276976096817</v>
+        <v>0.04061546057190454</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.9146825</v>
+        <v>0.557709</v>
       </c>
       <c r="H3">
-        <v>1.829365</v>
+        <v>1.115418</v>
       </c>
       <c r="I3">
-        <v>0.3844151897968112</v>
+        <v>0.4170172494453693</v>
       </c>
       <c r="J3">
-        <v>0.312897564880365</v>
+        <v>0.3331592991879933</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>61.099948</v>
       </c>
       <c r="O3">
-        <v>0.1224072166131488</v>
+        <v>0.1479780164301391</v>
       </c>
       <c r="P3">
-        <v>0.1389056103700951</v>
+        <v>0.1614255877248434</v>
       </c>
       <c r="Q3">
-        <v>18.62901772883666</v>
+        <v>11.358663633044</v>
       </c>
       <c r="R3">
-        <v>111.77410637302</v>
+        <v>68.151981798264</v>
       </c>
       <c r="S3">
-        <v>0.04705519340684299</v>
+        <v>0.06170938539007827</v>
       </c>
       <c r="T3">
-        <v>0.04346322723302354</v>
+        <v>0.05378043567741875</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.9146825</v>
+        <v>0.557709</v>
       </c>
       <c r="H4">
-        <v>1.829365</v>
+        <v>1.115418</v>
       </c>
       <c r="I4">
-        <v>0.3844151897968112</v>
+        <v>0.4170172494453693</v>
       </c>
       <c r="J4">
-        <v>0.312897564880365</v>
+        <v>0.3331592991879933</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>25.30234</v>
+        <v>24.87274833333333</v>
       </c>
       <c r="N4">
-        <v>75.90701999999999</v>
+        <v>74.618245</v>
       </c>
       <c r="O4">
-        <v>0.1520716030658261</v>
+        <v>0.1807179915210099</v>
       </c>
       <c r="P4">
-        <v>0.1725682474308328</v>
+        <v>0.1971408233296918</v>
       </c>
       <c r="Q4">
-        <v>23.14360760705</v>
+        <v>13.871755600235</v>
       </c>
       <c r="R4">
-        <v>138.8616456423</v>
+        <v>83.23053360141</v>
       </c>
       <c r="S4">
-        <v>0.0584586341552549</v>
+        <v>0.07536251974938311</v>
       </c>
       <c r="T4">
-        <v>0.05399618439677989</v>
+        <v>0.06567929854186412</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.9146825</v>
+        <v>0.557709</v>
       </c>
       <c r="H5">
-        <v>1.829365</v>
+        <v>1.115418</v>
       </c>
       <c r="I5">
-        <v>0.3844151897968112</v>
+        <v>0.4170172494453693</v>
       </c>
       <c r="J5">
-        <v>0.312897564880365</v>
+        <v>0.3331592991879933</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>14.742243</v>
+        <v>11.324958</v>
       </c>
       <c r="N5">
-        <v>29.484486</v>
+        <v>22.649916</v>
       </c>
       <c r="O5">
-        <v>0.0886035254366179</v>
+        <v>0.08228377646056106</v>
       </c>
       <c r="P5">
-        <v>0.06703050752643072</v>
+        <v>0.05984090202856364</v>
       </c>
       <c r="Q5">
-        <v>13.4844716828475</v>
+        <v>6.316031001221999</v>
       </c>
       <c r="R5">
-        <v>53.93788673139</v>
+        <v>25.264124004888</v>
       </c>
       <c r="S5">
-        <v>0.03406054104738406</v>
+        <v>0.0343137541335608</v>
       </c>
       <c r="T5">
-        <v>0.02097368257771515</v>
+        <v>0.01993655298261363</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.9146825</v>
+        <v>0.557709</v>
       </c>
       <c r="H6">
-        <v>1.829365</v>
+        <v>1.115418</v>
       </c>
       <c r="I6">
-        <v>0.3844151897968112</v>
+        <v>0.4170172494453693</v>
       </c>
       <c r="J6">
-        <v>0.312897564880365</v>
+        <v>0.3331592991879933</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>24.61478433333334</v>
+        <v>32.04211366666667</v>
       </c>
       <c r="N6">
-        <v>73.84435300000001</v>
+        <v>96.126341</v>
       </c>
       <c r="O6">
-        <v>0.1479392701500961</v>
+        <v>0.2328084676580601</v>
       </c>
       <c r="P6">
-        <v>0.1678789468994273</v>
+        <v>0.2539650457928984</v>
       </c>
       <c r="Q6">
-        <v>22.51471247097417</v>
+        <v>17.870175170923</v>
       </c>
       <c r="R6">
-        <v>135.088274825845</v>
+        <v>107.221051025538</v>
       </c>
       <c r="S6">
-        <v>0.05687010261315094</v>
+        <v>0.09708514683035543</v>
       </c>
       <c r="T6">
-        <v>0.0525289136795109</v>
+        <v>0.08461081667460865</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.9146825</v>
+        <v>0.557709</v>
       </c>
       <c r="H7">
-        <v>1.829365</v>
+        <v>1.115418</v>
       </c>
       <c r="I7">
-        <v>0.3844151897968112</v>
+        <v>0.4170172494453693</v>
       </c>
       <c r="J7">
-        <v>0.312897564880365</v>
+        <v>0.3331592991879933</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>36.81412633333333</v>
+        <v>25.95485933333333</v>
       </c>
       <c r="N7">
-        <v>110.442379</v>
+        <v>77.86457799999999</v>
       </c>
       <c r="O7">
-        <v>0.2212595043374583</v>
+        <v>0.1885802881961511</v>
       </c>
       <c r="P7">
-        <v>0.2510814913577403</v>
+        <v>0.2057176098840036</v>
       </c>
       <c r="Q7">
-        <v>33.67323710988916</v>
+        <v>14.475258643934</v>
       </c>
       <c r="R7">
-        <v>202.039422659335</v>
+        <v>86.851551863604</v>
       </c>
       <c r="S7">
-        <v>0.08505551435423242</v>
+        <v>0.07864123308317399</v>
       </c>
       <c r="T7">
-        <v>0.07856278723236733</v>
+        <v>0.06853673473958366</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,16 +915,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.2215323333333333</v>
+        <v>0.2215323333333334</v>
       </c>
       <c r="H8">
-        <v>0.664597</v>
+        <v>0.6645970000000001</v>
       </c>
       <c r="I8">
-        <v>0.09310377531489208</v>
+        <v>0.1656469669843617</v>
       </c>
       <c r="J8">
-        <v>0.113673751780971</v>
+        <v>0.1985055564482937</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>44.544241</v>
+        <v>23.0716105</v>
       </c>
       <c r="N8">
-        <v>89.088482</v>
+        <v>46.143221</v>
       </c>
       <c r="O8">
-        <v>0.2677188803968526</v>
+        <v>0.1676314597340788</v>
       </c>
       <c r="P8">
-        <v>0.2025351964154738</v>
+        <v>0.1219100312399993</v>
       </c>
       <c r="Q8">
-        <v>9.867989645292333</v>
+        <v>5.111107707822834</v>
       </c>
       <c r="R8">
-        <v>59.207937871754</v>
+        <v>30.666646246937</v>
       </c>
       <c r="S8">
-        <v>0.02492563848802303</v>
+        <v>0.02776764287611131</v>
       </c>
       <c r="T8">
-        <v>0.02302293564424277</v>
+        <v>0.02419981858792493</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,16 +977,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.2215323333333333</v>
+        <v>0.2215323333333334</v>
       </c>
       <c r="H9">
-        <v>0.664597</v>
+        <v>0.6645970000000001</v>
       </c>
       <c r="I9">
-        <v>0.09310377531489208</v>
+        <v>0.1656469669843617</v>
       </c>
       <c r="J9">
-        <v>0.113673751780971</v>
+        <v>0.1985055564482937</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>61.099948</v>
       </c>
       <c r="O9">
-        <v>0.1224072166131488</v>
+        <v>0.1479780164301391</v>
       </c>
       <c r="P9">
-        <v>0.1389056103700951</v>
+        <v>0.1614255877248434</v>
       </c>
       <c r="Q9">
-        <v>4.51187134899511</v>
+        <v>4.511871348995111</v>
       </c>
       <c r="R9">
         <v>40.606842140956</v>
       </c>
       <c r="S9">
-        <v>0.01139657399247193</v>
+        <v>0.02451210960201458</v>
       </c>
       <c r="T9">
-        <v>0.01578992187419446</v>
+        <v>0.03204387611631287</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1039,16 +1039,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.2215323333333333</v>
+        <v>0.2215323333333334</v>
       </c>
       <c r="H10">
-        <v>0.664597</v>
+        <v>0.6645970000000001</v>
       </c>
       <c r="I10">
-        <v>0.09310377531489208</v>
+        <v>0.1656469669843617</v>
       </c>
       <c r="J10">
-        <v>0.113673751780971</v>
+        <v>0.1985055564482937</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>25.30234</v>
+        <v>24.87274833333333</v>
       </c>
       <c r="N10">
-        <v>75.90701999999999</v>
+        <v>74.618245</v>
       </c>
       <c r="O10">
-        <v>0.1520716030658261</v>
+        <v>0.1807179915210099</v>
       </c>
       <c r="P10">
-        <v>0.1725682474308328</v>
+        <v>0.1971408233296918</v>
       </c>
       <c r="Q10">
-        <v>5.605286418993333</v>
+        <v>5.510117974696112</v>
       </c>
       <c r="R10">
-        <v>50.44757777093999</v>
+        <v>49.59106177226501</v>
       </c>
       <c r="S10">
-        <v>0.01415844036361613</v>
+        <v>0.02993538717496088</v>
       </c>
       <c r="T10">
-        <v>0.01961648012372967</v>
+        <v>0.03913354883373522</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1101,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.2215323333333333</v>
+        <v>0.2215323333333334</v>
       </c>
       <c r="H11">
-        <v>0.664597</v>
+        <v>0.6645970000000001</v>
       </c>
       <c r="I11">
-        <v>0.09310377531489208</v>
+        <v>0.1656469669843617</v>
       </c>
       <c r="J11">
-        <v>0.113673751780971</v>
+        <v>0.1985055564482937</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>14.742243</v>
+        <v>11.324958</v>
       </c>
       <c r="N11">
-        <v>29.484486</v>
+        <v>22.649916</v>
       </c>
       <c r="O11">
-        <v>0.0886035254366179</v>
+        <v>0.08228377646056106</v>
       </c>
       <c r="P11">
-        <v>0.06703050752643072</v>
+        <v>0.05984090202856364</v>
       </c>
       <c r="Q11">
-        <v>3.265883490357</v>
+        <v>2.508844370642</v>
       </c>
       <c r="R11">
-        <v>19.595300942142</v>
+        <v>15.053066223852</v>
       </c>
       <c r="S11">
-        <v>0.008249322724358198</v>
+        <v>0.01363005800271116</v>
       </c>
       <c r="T11">
-        <v>0.007619609274311992</v>
+        <v>0.01187875155554785</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.2215323333333333</v>
+        <v>0.2215323333333334</v>
       </c>
       <c r="H12">
-        <v>0.664597</v>
+        <v>0.6645970000000001</v>
       </c>
       <c r="I12">
-        <v>0.09310377531489208</v>
+        <v>0.1656469669843617</v>
       </c>
       <c r="J12">
-        <v>0.113673751780971</v>
+        <v>0.1985055564482937</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>24.61478433333334</v>
+        <v>32.04211366666667</v>
       </c>
       <c r="N12">
-        <v>73.84435300000001</v>
+        <v>96.126341</v>
       </c>
       <c r="O12">
-        <v>0.1479392701500961</v>
+        <v>0.2328084676580601</v>
       </c>
       <c r="P12">
-        <v>0.1678789468994273</v>
+        <v>0.2539650457928984</v>
       </c>
       <c r="Q12">
-        <v>5.452970607860112</v>
+        <v>7.098364205508556</v>
       </c>
       <c r="R12">
-        <v>49.07673547074101</v>
+        <v>63.88527784957701</v>
       </c>
       <c r="S12">
-        <v>0.01377370456830367</v>
+        <v>0.03856401655583451</v>
       </c>
       <c r="T12">
-        <v>0.0190834297390963</v>
+        <v>0.05041347273353567</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.2215323333333333</v>
+        <v>0.2215323333333334</v>
       </c>
       <c r="H13">
-        <v>0.664597</v>
+        <v>0.6645970000000001</v>
       </c>
       <c r="I13">
-        <v>0.09310377531489208</v>
+        <v>0.1656469669843617</v>
       </c>
       <c r="J13">
-        <v>0.113673751780971</v>
+        <v>0.1985055564482937</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>36.81412633333333</v>
+        <v>25.95485933333333</v>
       </c>
       <c r="N13">
-        <v>110.442379</v>
+        <v>77.86457799999999</v>
       </c>
       <c r="O13">
-        <v>0.2212595043374583</v>
+        <v>0.1885802881961511</v>
       </c>
       <c r="P13">
-        <v>0.2510814913577403</v>
+        <v>0.2057176098840036</v>
       </c>
       <c r="Q13">
-        <v>8.155519306251444</v>
+        <v>5.749840549451778</v>
       </c>
       <c r="R13">
-        <v>73.399673756263</v>
+        <v>51.74856494506601</v>
       </c>
       <c r="S13">
-        <v>0.02060009517811911</v>
+        <v>0.03123775277272925</v>
       </c>
       <c r="T13">
-        <v>0.02854137512539577</v>
+        <v>0.04083608862123714</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.1266516666666667</v>
+        <v>0.213315</v>
       </c>
       <c r="H14">
-        <v>0.379955</v>
+        <v>0.639945</v>
       </c>
       <c r="I14">
-        <v>0.05322811410489338</v>
+        <v>0.1595025982464671</v>
       </c>
       <c r="J14">
-        <v>0.06498812115904649</v>
+        <v>0.1911423589352694</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>44.544241</v>
+        <v>23.0716105</v>
       </c>
       <c r="N14">
-        <v>89.088482</v>
+        <v>46.143221</v>
       </c>
       <c r="O14">
-        <v>0.2677188803968526</v>
+        <v>0.1676314597340788</v>
       </c>
       <c r="P14">
-        <v>0.2025351964154738</v>
+        <v>0.1219100312399993</v>
       </c>
       <c r="Q14">
-        <v>5.641602363051667</v>
+        <v>4.9215205938075</v>
       </c>
       <c r="R14">
-        <v>33.84961417831</v>
+        <v>29.529123562845</v>
       </c>
       <c r="S14">
-        <v>0.01425017111379797</v>
+        <v>0.02673765337543361</v>
       </c>
       <c r="T14">
-        <v>0.01316238188362009</v>
+        <v>0.02330217094908586</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.1266516666666667</v>
+        <v>0.213315</v>
       </c>
       <c r="H15">
-        <v>0.379955</v>
+        <v>0.639945</v>
       </c>
       <c r="I15">
-        <v>0.05322811410489338</v>
+        <v>0.1595025982464671</v>
       </c>
       <c r="J15">
-        <v>0.06498812115904649</v>
+        <v>0.1911423589352694</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>61.099948</v>
       </c>
       <c r="O15">
-        <v>0.1224072166131488</v>
+        <v>0.1479780164301391</v>
       </c>
       <c r="P15">
-        <v>0.1389056103700951</v>
+        <v>0.1614255877248434</v>
       </c>
       <c r="Q15">
-        <v>2.579470082482222</v>
+        <v>4.34451180254</v>
       </c>
       <c r="R15">
-        <v>23.21523074234</v>
+        <v>39.10060622285999</v>
       </c>
       <c r="S15">
-        <v>0.006515505293147085</v>
+        <v>0.02360287810396559</v>
       </c>
       <c r="T15">
-        <v>0.009027214636403047</v>
+        <v>0.03085526763023883</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.1266516666666667</v>
+        <v>0.213315</v>
       </c>
       <c r="H16">
-        <v>0.379955</v>
+        <v>0.639945</v>
       </c>
       <c r="I16">
-        <v>0.05322811410489338</v>
+        <v>0.1595025982464671</v>
       </c>
       <c r="J16">
-        <v>0.06498812115904649</v>
+        <v>0.1911423589352694</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>25.30234</v>
+        <v>24.87274833333333</v>
       </c>
       <c r="N16">
-        <v>75.90701999999999</v>
+        <v>74.618245</v>
       </c>
       <c r="O16">
-        <v>0.1520716030658261</v>
+        <v>0.1807179915210099</v>
       </c>
       <c r="P16">
-        <v>0.1725682474308328</v>
+        <v>0.1971408233296918</v>
       </c>
       <c r="Q16">
-        <v>3.204583531566666</v>
+        <v>5.305730310725</v>
       </c>
       <c r="R16">
-        <v>28.8412517841</v>
+        <v>47.751572796525</v>
       </c>
       <c r="S16">
-        <v>0.008094484640101847</v>
+        <v>0.02882498919748409</v>
       </c>
       <c r="T16">
-        <v>0.01121488617223928</v>
+        <v>0.03768196201367849</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.1266516666666667</v>
+        <v>0.213315</v>
       </c>
       <c r="H17">
-        <v>0.379955</v>
+        <v>0.639945</v>
       </c>
       <c r="I17">
-        <v>0.05322811410489338</v>
+        <v>0.1595025982464671</v>
       </c>
       <c r="J17">
-        <v>0.06498812115904649</v>
+        <v>0.1911423589352694</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>14.742243</v>
+        <v>11.324958</v>
       </c>
       <c r="N17">
-        <v>29.484486</v>
+        <v>22.649916</v>
       </c>
       <c r="O17">
-        <v>0.0886035254366179</v>
+        <v>0.08228377646056106</v>
       </c>
       <c r="P17">
-        <v>0.06703050752643072</v>
+        <v>0.05984090202856364</v>
       </c>
       <c r="Q17">
-        <v>1.867129646355</v>
+        <v>2.41578341577</v>
       </c>
       <c r="R17">
-        <v>11.20277787813</v>
+        <v>14.49470049462</v>
       </c>
       <c r="S17">
-        <v>0.00471619856203612</v>
+        <v>0.01312447613899098</v>
       </c>
       <c r="T17">
-        <v>0.004356186744480058</v>
+        <v>0.011438131174554</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>0.1266516666666667</v>
+        <v>0.213315</v>
       </c>
       <c r="H18">
-        <v>0.379955</v>
+        <v>0.639945</v>
       </c>
       <c r="I18">
-        <v>0.05322811410489338</v>
+        <v>0.1595025982464671</v>
       </c>
       <c r="J18">
-        <v>0.06498812115904649</v>
+        <v>0.1911423589352694</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>24.61478433333334</v>
+        <v>32.04211366666667</v>
       </c>
       <c r="N18">
-        <v>73.84435300000001</v>
+        <v>96.126341</v>
       </c>
       <c r="O18">
-        <v>0.1479392701500961</v>
+        <v>0.2328084676580601</v>
       </c>
       <c r="P18">
-        <v>0.1678789468994273</v>
+        <v>0.2539650457928984</v>
       </c>
       <c r="Q18">
-        <v>3.117503460457223</v>
+        <v>6.835063476805</v>
       </c>
       <c r="R18">
-        <v>28.057531144115</v>
+        <v>61.515571291245</v>
       </c>
       <c r="S18">
-        <v>0.007874528352143964</v>
+        <v>0.03713355548523919</v>
       </c>
       <c r="T18">
-        <v>0.01091013734115311</v>
+        <v>0.04854347793995831</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>0.1266516666666667</v>
+        <v>0.213315</v>
       </c>
       <c r="H19">
-        <v>0.379955</v>
+        <v>0.639945</v>
       </c>
       <c r="I19">
-        <v>0.05322811410489338</v>
+        <v>0.1595025982464671</v>
       </c>
       <c r="J19">
-        <v>0.06498812115904649</v>
+        <v>0.1911423589352694</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>36.81412633333333</v>
+        <v>25.95485933333333</v>
       </c>
       <c r="N19">
-        <v>110.442379</v>
+        <v>77.86457799999999</v>
       </c>
       <c r="O19">
-        <v>0.2212595043374583</v>
+        <v>0.1885802881961511</v>
       </c>
       <c r="P19">
-        <v>0.2510814913577403</v>
+        <v>0.2057176098840036</v>
       </c>
       <c r="Q19">
-        <v>4.662570456993889</v>
+        <v>5.53656081869</v>
       </c>
       <c r="R19">
-        <v>41.963134112945</v>
+        <v>49.82904736821</v>
       </c>
       <c r="S19">
-        <v>0.01177722614366638</v>
+        <v>0.03007904594535368</v>
       </c>
       <c r="T19">
-        <v>0.01631731438115091</v>
+        <v>0.03932134922775395</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,22 +1653,22 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G20">
-        <v>0.3770265</v>
+        <v>0.106418</v>
       </c>
       <c r="H20">
-        <v>0.7540530000000001</v>
+        <v>0.212836</v>
       </c>
       <c r="I20">
-        <v>0.1584535765753991</v>
+        <v>0.0795722171445634</v>
       </c>
       <c r="J20">
-        <v>0.1289744515122646</v>
+        <v>0.06357104924071132</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>44.544241</v>
+        <v>23.0716105</v>
       </c>
       <c r="N20">
-        <v>89.088482</v>
+        <v>46.143221</v>
       </c>
       <c r="O20">
-        <v>0.2677188803968526</v>
+        <v>0.1676314597340788</v>
       </c>
       <c r="P20">
-        <v>0.2025351964154738</v>
+        <v>0.1219100312399993</v>
       </c>
       <c r="Q20">
-        <v>16.7943592793865</v>
+        <v>2.455234646189</v>
       </c>
       <c r="R20">
-        <v>67.17743711754601</v>
+        <v>9.820938584756</v>
       </c>
       <c r="S20">
-        <v>0.04242101411564279</v>
+        <v>0.01333880691422025</v>
       </c>
       <c r="T20">
-        <v>0.02612186586961451</v>
+        <v>0.007749948598894652</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,22 +1715,22 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G21">
-        <v>0.3770265</v>
+        <v>0.106418</v>
       </c>
       <c r="H21">
-        <v>0.7540530000000001</v>
+        <v>0.212836</v>
       </c>
       <c r="I21">
-        <v>0.1584535765753991</v>
+        <v>0.0795722171445634</v>
       </c>
       <c r="J21">
-        <v>0.1289744515122646</v>
+        <v>0.06357104924071132</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>61.099948</v>
       </c>
       <c r="O21">
-        <v>0.1224072166131488</v>
+        <v>0.1479780164301391</v>
       </c>
       <c r="P21">
-        <v>0.1389056103700951</v>
+        <v>0.1614255877248434</v>
       </c>
       <c r="Q21">
-        <v>7.678766514874</v>
+        <v>2.167378088754667</v>
       </c>
       <c r="R21">
-        <v>46.072599089244</v>
+        <v>13.004268532528</v>
       </c>
       <c r="S21">
-        <v>0.01939586127099304</v>
+        <v>0.0117749388560008</v>
       </c>
       <c r="T21">
-        <v>0.01791527490945935</v>
+        <v>0.01026199398596678</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,22 +1777,22 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G22">
-        <v>0.3770265</v>
+        <v>0.106418</v>
       </c>
       <c r="H22">
-        <v>0.7540530000000001</v>
+        <v>0.212836</v>
       </c>
       <c r="I22">
-        <v>0.1584535765753991</v>
+        <v>0.0795722171445634</v>
       </c>
       <c r="J22">
-        <v>0.1289744515122646</v>
+        <v>0.06357104924071132</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>25.30234</v>
+        <v>24.87274833333333</v>
       </c>
       <c r="N22">
-        <v>75.90701999999999</v>
+        <v>74.618245</v>
       </c>
       <c r="O22">
-        <v>0.1520716030658261</v>
+        <v>0.1807179915210099</v>
       </c>
       <c r="P22">
-        <v>0.1725682474308328</v>
+        <v>0.1971408233296918</v>
       </c>
       <c r="Q22">
-        <v>9.53965269201</v>
+        <v>2.646908132136667</v>
       </c>
       <c r="R22">
-        <v>57.23791615206</v>
+        <v>15.88144879282</v>
       </c>
       <c r="S22">
-        <v>0.02409628940133458</v>
+        <v>0.01438013126323917</v>
       </c>
       <c r="T22">
-        <v>0.02225689506082442</v>
+        <v>0.01253244898724621</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,22 +1839,22 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G23">
-        <v>0.3770265</v>
+        <v>0.106418</v>
       </c>
       <c r="H23">
-        <v>0.7540530000000001</v>
+        <v>0.212836</v>
       </c>
       <c r="I23">
-        <v>0.1584535765753991</v>
+        <v>0.0795722171445634</v>
       </c>
       <c r="J23">
-        <v>0.1289744515122646</v>
+        <v>0.06357104924071132</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>14.742243</v>
+        <v>11.324958</v>
       </c>
       <c r="N23">
-        <v>29.484486</v>
+        <v>22.649916</v>
       </c>
       <c r="O23">
-        <v>0.0886035254366179</v>
+        <v>0.08228377646056106</v>
       </c>
       <c r="P23">
-        <v>0.06703050752643072</v>
+        <v>0.05984090202856364</v>
       </c>
       <c r="Q23">
-        <v>5.558216280439502</v>
+        <v>1.205179380444</v>
       </c>
       <c r="R23">
-        <v>22.23286512175801</v>
+        <v>4.820717521775999</v>
       </c>
       <c r="S23">
-        <v>0.01403954550262145</v>
+        <v>0.00654750252799448</v>
       </c>
       <c r="T23">
-        <v>0.008645222942810124</v>
+        <v>0.003804148929466401</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,22 +1901,22 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G24">
-        <v>0.3770265</v>
+        <v>0.106418</v>
       </c>
       <c r="H24">
-        <v>0.7540530000000001</v>
+        <v>0.212836</v>
       </c>
       <c r="I24">
-        <v>0.1584535765753991</v>
+        <v>0.0795722171445634</v>
       </c>
       <c r="J24">
-        <v>0.1289744515122646</v>
+        <v>0.06357104924071132</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>24.61478433333334</v>
+        <v>32.04211366666667</v>
       </c>
       <c r="N24">
-        <v>73.84435300000001</v>
+        <v>96.126341</v>
       </c>
       <c r="O24">
-        <v>0.1479392701500961</v>
+        <v>0.2328084676580601</v>
       </c>
       <c r="P24">
-        <v>0.1678789468994273</v>
+        <v>0.2539650457928984</v>
       </c>
       <c r="Q24">
-        <v>9.280425985451503</v>
+        <v>3.409857652179333</v>
       </c>
       <c r="R24">
-        <v>55.68255591270901</v>
+        <v>20.459145913076</v>
       </c>
       <c r="S24">
-        <v>0.02344150647123691</v>
+        <v>0.01852508594158022</v>
       </c>
       <c r="T24">
-        <v>0.02165209509681023</v>
+        <v>0.01614482443151985</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,22 +1963,22 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G25">
-        <v>0.3770265</v>
+        <v>0.106418</v>
       </c>
       <c r="H25">
-        <v>0.7540530000000001</v>
+        <v>0.212836</v>
       </c>
       <c r="I25">
-        <v>0.1584535765753991</v>
+        <v>0.0795722171445634</v>
       </c>
       <c r="J25">
-        <v>0.1289744515122646</v>
+        <v>0.06357104924071132</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>36.81412633333333</v>
+        <v>25.95485933333333</v>
       </c>
       <c r="N25">
-        <v>110.442379</v>
+        <v>77.86457799999999</v>
       </c>
       <c r="O25">
-        <v>0.2212595043374583</v>
+        <v>0.1885802881961511</v>
       </c>
       <c r="P25">
-        <v>0.2510814913577403</v>
+        <v>0.2057176098840036</v>
       </c>
       <c r="Q25">
-        <v>13.8799012020145</v>
+        <v>2.762064220534667</v>
       </c>
       <c r="R25">
-        <v>83.27940721208701</v>
+        <v>16.572385323208</v>
       </c>
       <c r="S25">
-        <v>0.0350593598135703</v>
+        <v>0.01500575164152848</v>
       </c>
       <c r="T25">
-        <v>0.03238309763274595</v>
+        <v>0.01307768430761744</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>0.5428536666666667</v>
+        <v>0.1768386666666667</v>
       </c>
       <c r="H26">
-        <v>1.628561</v>
+        <v>0.530516</v>
       </c>
       <c r="I26">
-        <v>0.2281460455442862</v>
+        <v>0.1322280514908668</v>
       </c>
       <c r="J26">
-        <v>0.2785517221326155</v>
+        <v>0.158457491960877</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>44.544241</v>
+        <v>23.0716105</v>
       </c>
       <c r="N26">
-        <v>89.088482</v>
+        <v>46.143221</v>
       </c>
       <c r="O26">
-        <v>0.2677188803968526</v>
+        <v>0.1676314597340788</v>
       </c>
       <c r="P26">
-        <v>0.2025351964154738</v>
+        <v>0.1219100312399993</v>
       </c>
       <c r="Q26">
-        <v>24.18100455573367</v>
+        <v>4.079952838672667</v>
       </c>
       <c r="R26">
-        <v>145.086027334402</v>
+        <v>24.479717032036</v>
       </c>
       <c r="S26">
-        <v>0.06107900388008565</v>
+        <v>0.02216558128920694</v>
       </c>
       <c r="T26">
-        <v>0.05641652775399775</v>
+        <v>0.01931755779516245</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>0.5428536666666667</v>
+        <v>0.1768386666666667</v>
       </c>
       <c r="H27">
-        <v>1.628561</v>
+        <v>0.530516</v>
       </c>
       <c r="I27">
-        <v>0.2281460455442862</v>
+        <v>0.1322280514908668</v>
       </c>
       <c r="J27">
-        <v>0.2785517221326155</v>
+        <v>0.158457491960877</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>61.099948</v>
       </c>
       <c r="O27">
-        <v>0.1224072166131488</v>
+        <v>0.1479780164301391</v>
       </c>
       <c r="P27">
-        <v>0.1389056103700951</v>
+        <v>0.1614255877248434</v>
       </c>
       <c r="Q27">
-        <v>11.05611026831422</v>
+        <v>3.601611112574222</v>
       </c>
       <c r="R27">
-        <v>99.504992414828</v>
+        <v>32.414500013168</v>
       </c>
       <c r="S27">
-        <v>0.02792672241637276</v>
+        <v>0.01956684477604077</v>
       </c>
       <c r="T27">
-        <v>0.03869239698247209</v>
+        <v>0.02557909376918921</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>0.5428536666666667</v>
+        <v>0.1768386666666667</v>
       </c>
       <c r="H28">
-        <v>1.628561</v>
+        <v>0.530516</v>
       </c>
       <c r="I28">
-        <v>0.2281460455442862</v>
+        <v>0.1322280514908668</v>
       </c>
       <c r="J28">
-        <v>0.2785517221326155</v>
+        <v>0.158457491960877</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>25.30234</v>
+        <v>24.87274833333333</v>
       </c>
       <c r="N28">
-        <v>75.90701999999999</v>
+        <v>74.618245</v>
       </c>
       <c r="O28">
-        <v>0.1520716030658261</v>
+        <v>0.1807179915210099</v>
       </c>
       <c r="P28">
-        <v>0.1725682474308328</v>
+        <v>0.1971408233296918</v>
       </c>
       <c r="Q28">
-        <v>13.73546804424667</v>
+        <v>4.398463651602222</v>
       </c>
       <c r="R28">
-        <v>123.61921239822</v>
+        <v>39.58617286442</v>
       </c>
       <c r="S28">
-        <v>0.03469453487904859</v>
+        <v>0.02389598788816613</v>
       </c>
       <c r="T28">
-        <v>0.04806918250726578</v>
+        <v>0.03123844042792531</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>0.5428536666666667</v>
+        <v>0.1768386666666667</v>
       </c>
       <c r="H29">
-        <v>1.628561</v>
+        <v>0.530516</v>
       </c>
       <c r="I29">
-        <v>0.2281460455442862</v>
+        <v>0.1322280514908668</v>
       </c>
       <c r="J29">
-        <v>0.2785517221326155</v>
+        <v>0.158457491960877</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>14.742243</v>
+        <v>11.324958</v>
       </c>
       <c r="N29">
-        <v>29.484486</v>
+        <v>22.649916</v>
       </c>
       <c r="O29">
-        <v>0.0886035254366179</v>
+        <v>0.08228377646056106</v>
       </c>
       <c r="P29">
-        <v>0.06703050752643072</v>
+        <v>0.05984090202856364</v>
       </c>
       <c r="Q29">
-        <v>8.002880667441001</v>
+        <v>2.002690472776</v>
       </c>
       <c r="R29">
-        <v>48.017284004646</v>
+        <v>12.016142836656</v>
       </c>
       <c r="S29">
-        <v>0.02021454394964695</v>
+        <v>0.01088022343069004</v>
       </c>
       <c r="T29">
-        <v>0.01867146330691052</v>
+        <v>0.00948223925212275</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>0.5428536666666667</v>
+        <v>0.1768386666666667</v>
       </c>
       <c r="H30">
-        <v>1.628561</v>
+        <v>0.530516</v>
       </c>
       <c r="I30">
-        <v>0.2281460455442862</v>
+        <v>0.1322280514908668</v>
       </c>
       <c r="J30">
-        <v>0.2785517221326155</v>
+        <v>0.158457491960877</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>24.61478433333334</v>
+        <v>32.04211366666667</v>
       </c>
       <c r="N30">
-        <v>73.84435300000001</v>
+        <v>96.126341</v>
       </c>
       <c r="O30">
-        <v>0.1479392701500961</v>
+        <v>0.2328084676580601</v>
       </c>
       <c r="P30">
-        <v>0.1678789468994273</v>
+        <v>0.2539650457928984</v>
       </c>
       <c r="Q30">
-        <v>13.36222592955922</v>
+        <v>5.666284657995111</v>
       </c>
       <c r="R30">
-        <v>120.260033366033</v>
+        <v>50.99656192195599</v>
       </c>
       <c r="S30">
-        <v>0.03375175946545229</v>
+        <v>0.03078381004899977</v>
       </c>
       <c r="T30">
-        <v>0.04676296976864538</v>
+        <v>0.04024266420207194</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>0.5428536666666667</v>
+        <v>0.1768386666666667</v>
       </c>
       <c r="H31">
-        <v>1.628561</v>
+        <v>0.530516</v>
       </c>
       <c r="I31">
-        <v>0.2281460455442862</v>
+        <v>0.1322280514908668</v>
       </c>
       <c r="J31">
-        <v>0.2785517221326155</v>
+        <v>0.158457491960877</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>36.81412633333333</v>
+        <v>25.95485933333333</v>
       </c>
       <c r="N31">
-        <v>110.442379</v>
+        <v>77.86457799999999</v>
       </c>
       <c r="O31">
-        <v>0.2212595043374583</v>
+        <v>0.1885802881961511</v>
       </c>
       <c r="P31">
-        <v>0.2510814913577403</v>
+        <v>0.2057176098840036</v>
       </c>
       <c r="Q31">
-        <v>19.98468346517989</v>
+        <v>4.589822718027555</v>
       </c>
       <c r="R31">
-        <v>179.862151186619</v>
+        <v>41.308404462248</v>
       </c>
       <c r="S31">
-        <v>0.05047948095367996</v>
+        <v>0.02493560405776318</v>
       </c>
       <c r="T31">
-        <v>0.06993918181332397</v>
+        <v>0.03259749651440533</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,22 +2397,22 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F32">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G32">
-        <v>0.1966663333333333</v>
+        <v>0.06156333333333334</v>
       </c>
       <c r="H32">
-        <v>0.5899989999999999</v>
+        <v>0.18469</v>
       </c>
       <c r="I32">
-        <v>0.08265329866371803</v>
+        <v>0.04603291668837169</v>
       </c>
       <c r="J32">
-        <v>0.1009143885347377</v>
+        <v>0.05516424422685531</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>44.544241</v>
+        <v>23.0716105</v>
       </c>
       <c r="N32">
-        <v>89.088482</v>
+        <v>46.143221</v>
       </c>
       <c r="O32">
-        <v>0.2677188803968526</v>
+        <v>0.1676314597340788</v>
       </c>
       <c r="P32">
-        <v>0.2025351964154738</v>
+        <v>0.1219100312399993</v>
       </c>
       <c r="Q32">
-        <v>8.760352548586331</v>
+        <v>1.420365247748333</v>
       </c>
       <c r="R32">
-        <v>52.562115291518</v>
+        <v>8.52219148649</v>
       </c>
       <c r="S32">
-        <v>0.02212784857935726</v>
+        <v>0.007716565020288984</v>
       </c>
       <c r="T32">
-        <v>0.02043871550303054</v>
+        <v>0.006725074737026883</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,22 +2459,22 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F33">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G33">
-        <v>0.1966663333333333</v>
+        <v>0.06156333333333334</v>
       </c>
       <c r="H33">
-        <v>0.5899989999999999</v>
+        <v>0.18469</v>
       </c>
       <c r="I33">
-        <v>0.08265329866371803</v>
+        <v>0.04603291668837169</v>
       </c>
       <c r="J33">
-        <v>0.1009143885347377</v>
+        <v>0.05516424422685531</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>61.099948</v>
       </c>
       <c r="O33">
-        <v>0.1224072166131488</v>
+        <v>0.1479780164301391</v>
       </c>
       <c r="P33">
-        <v>0.1389056103700951</v>
+        <v>0.1614255877248434</v>
       </c>
       <c r="Q33">
-        <v>4.005434246672444</v>
+        <v>1.253838821791111</v>
       </c>
       <c r="R33">
-        <v>36.04890822005199</v>
+        <v>11.28454939612</v>
       </c>
       <c r="S33">
-        <v>0.01011736023332102</v>
+        <v>0.00681185970203909</v>
       </c>
       <c r="T33">
-        <v>0.01401757473454267</v>
+        <v>0.008904920545716915</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,22 +2521,22 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F34">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G34">
-        <v>0.1966663333333333</v>
+        <v>0.06156333333333334</v>
       </c>
       <c r="H34">
-        <v>0.5899989999999999</v>
+        <v>0.18469</v>
       </c>
       <c r="I34">
-        <v>0.08265329866371803</v>
+        <v>0.04603291668837169</v>
       </c>
       <c r="J34">
-        <v>0.1009143885347377</v>
+        <v>0.05516424422685531</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>25.30234</v>
+        <v>24.87274833333333</v>
       </c>
       <c r="N34">
-        <v>75.90701999999999</v>
+        <v>74.618245</v>
       </c>
       <c r="O34">
-        <v>0.1520716030658261</v>
+        <v>0.1807179915210099</v>
       </c>
       <c r="P34">
-        <v>0.1725682474308328</v>
+        <v>0.1971408233296918</v>
       </c>
       <c r="Q34">
-        <v>4.976118432553332</v>
+        <v>1.531249296561111</v>
       </c>
       <c r="R34">
-        <v>44.78506589297999</v>
+        <v>13.78124366905</v>
       </c>
       <c r="S34">
-        <v>0.01256921962647011</v>
+        <v>0.00831897624777651</v>
       </c>
       <c r="T34">
-        <v>0.01741461916999382</v>
+        <v>0.01087512452524245</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,22 +2583,22 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F35">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G35">
-        <v>0.1966663333333333</v>
+        <v>0.06156333333333334</v>
       </c>
       <c r="H35">
-        <v>0.5899989999999999</v>
+        <v>0.18469</v>
       </c>
       <c r="I35">
-        <v>0.08265329866371803</v>
+        <v>0.04603291668837169</v>
       </c>
       <c r="J35">
-        <v>0.1009143885347377</v>
+        <v>0.05516424422685531</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>14.742243</v>
+        <v>11.324958</v>
       </c>
       <c r="N35">
-        <v>29.484486</v>
+        <v>22.649916</v>
       </c>
       <c r="O35">
-        <v>0.0886035254366179</v>
+        <v>0.08228377646056106</v>
       </c>
       <c r="P35">
-        <v>0.06703050752643072</v>
+        <v>0.05984090202856364</v>
       </c>
       <c r="Q35">
-        <v>2.899302875919</v>
+        <v>0.6972021643399999</v>
       </c>
       <c r="R35">
-        <v>17.395817255514</v>
+        <v>4.18321298604</v>
       </c>
       <c r="S35">
-        <v>0.007323373650571116</v>
+        <v>0.003787762226613607</v>
       </c>
       <c r="T35">
-        <v>0.00676434268020289</v>
+        <v>0.003301078134259006</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,22 +2645,22 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F36">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G36">
-        <v>0.1966663333333333</v>
+        <v>0.06156333333333334</v>
       </c>
       <c r="H36">
-        <v>0.5899989999999999</v>
+        <v>0.18469</v>
       </c>
       <c r="I36">
-        <v>0.08265329866371803</v>
+        <v>0.04603291668837169</v>
       </c>
       <c r="J36">
-        <v>0.1009143885347377</v>
+        <v>0.05516424422685531</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>24.61478433333334</v>
+        <v>32.04211366666667</v>
       </c>
       <c r="N36">
-        <v>73.84435300000001</v>
+        <v>96.126341</v>
       </c>
       <c r="O36">
-        <v>0.1479392701500961</v>
+        <v>0.2328084676580601</v>
       </c>
       <c r="P36">
-        <v>0.1678789468994273</v>
+        <v>0.2539650457928984</v>
       </c>
       <c r="Q36">
-        <v>4.840899380627445</v>
+        <v>1.972619324365556</v>
       </c>
       <c r="R36">
-        <v>43.568094425647</v>
+        <v>17.75357391929</v>
       </c>
       <c r="S36">
-        <v>0.01222766867980836</v>
+        <v>0.01071685279605095</v>
       </c>
       <c r="T36">
-        <v>0.01694140127421141</v>
+        <v>0.01400978981120394</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,22 +2707,22 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F37">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G37">
-        <v>0.1966663333333333</v>
+        <v>0.06156333333333334</v>
       </c>
       <c r="H37">
-        <v>0.5899989999999999</v>
+        <v>0.18469</v>
       </c>
       <c r="I37">
-        <v>0.08265329866371803</v>
+        <v>0.04603291668837169</v>
       </c>
       <c r="J37">
-        <v>0.1009143885347377</v>
+        <v>0.05516424422685531</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>36.81412633333333</v>
+        <v>25.95485933333333</v>
       </c>
       <c r="N37">
-        <v>110.442379</v>
+        <v>77.86457799999999</v>
       </c>
       <c r="O37">
-        <v>0.2212595043374583</v>
+        <v>0.1885802881961511</v>
       </c>
       <c r="P37">
-        <v>0.2510814913577403</v>
+        <v>0.2057176098840036</v>
       </c>
       <c r="Q37">
-        <v>7.240099240846777</v>
+        <v>1.597867656757778</v>
       </c>
       <c r="R37">
-        <v>65.160893167621</v>
+        <v>14.38080891082</v>
       </c>
       <c r="S37">
-        <v>0.01828782789419016</v>
+        <v>0.008680900695602548</v>
       </c>
       <c r="T37">
-        <v>0.02533773517275639</v>
+        <v>0.01134825647340612</v>
       </c>
     </row>
   </sheetData>
